--- a/Test Data/inputdata.xlsx
+++ b/Test Data/inputdata.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumBTM\TestPackage\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumBTM\SeleniumRevision\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowHeight="3540" windowWidth="14325" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoices Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Hello" r:id="rId1" sheetId="2"/>
+    <sheet name="Invoices Summary" r:id="rId2" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9812" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9833" uniqueCount="1329">
   <si>
     <t>Name of Recepient</t>
   </si>
@@ -3985,12 +3986,34 @@
   </si>
   <si>
     <t>2017-10-31T14:27:53</t>
+  </si>
+  <si>
+    <t>eat brain</t>
+  </si>
+  <si>
+    <t>brain100</t>
+  </si>
+  <si>
+    <t>brainless</t>
+  </si>
+  <si>
+    <t>brainlesspepole100</t>
+  </si>
+  <si>
+    <t>brainlesspepole1000</t>
+  </si>
+  <si>
+    <t>brainlesspepole you are</t>
+  </si>
+  <si>
+    <t>brainlesspepole you are man</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4425,104 +4448,104 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle builtinId="30" customBuiltin="1" name="20% - Accent1" xfId="19"/>
+    <cellStyle builtinId="34" customBuiltin="1" name="20% - Accent2" xfId="23"/>
+    <cellStyle builtinId="38" customBuiltin="1" name="20% - Accent3" xfId="27"/>
+    <cellStyle builtinId="42" customBuiltin="1" name="20% - Accent4" xfId="31"/>
+    <cellStyle builtinId="46" customBuiltin="1" name="20% - Accent5" xfId="35"/>
+    <cellStyle builtinId="50" customBuiltin="1" name="20% - Accent6" xfId="39"/>
+    <cellStyle builtinId="31" customBuiltin="1" name="40% - Accent1" xfId="20"/>
+    <cellStyle builtinId="35" customBuiltin="1" name="40% - Accent2" xfId="24"/>
+    <cellStyle builtinId="39" customBuiltin="1" name="40% - Accent3" xfId="28"/>
+    <cellStyle builtinId="43" customBuiltin="1" name="40% - Accent4" xfId="32"/>
+    <cellStyle builtinId="47" customBuiltin="1" name="40% - Accent5" xfId="36"/>
+    <cellStyle builtinId="51" customBuiltin="1" name="40% - Accent6" xfId="40"/>
+    <cellStyle builtinId="32" customBuiltin="1" name="60% - Accent1" xfId="21"/>
+    <cellStyle builtinId="36" customBuiltin="1" name="60% - Accent2" xfId="25"/>
+    <cellStyle builtinId="40" customBuiltin="1" name="60% - Accent3" xfId="29"/>
+    <cellStyle builtinId="44" customBuiltin="1" name="60% - Accent4" xfId="33"/>
+    <cellStyle builtinId="48" customBuiltin="1" name="60% - Accent5" xfId="37"/>
+    <cellStyle builtinId="52" customBuiltin="1" name="60% - Accent6" xfId="41"/>
+    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
+    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
+    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
+    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
+    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
+    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
+    <cellStyle builtinId="27" customBuiltin="1" name="Bad" xfId="7"/>
+    <cellStyle builtinId="22" customBuiltin="1" name="Calculation" xfId="11"/>
+    <cellStyle builtinId="23" customBuiltin="1" name="Check Cell" xfId="13"/>
+    <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="16"/>
+    <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="6"/>
+    <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="2"/>
+    <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="3"/>
+    <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="4"/>
+    <cellStyle builtinId="19" customBuiltin="1" name="Heading 4" xfId="5"/>
+    <cellStyle builtinId="20" customBuiltin="1" name="Input" xfId="9"/>
+    <cellStyle builtinId="24" customBuiltin="1" name="Linked Cell" xfId="12"/>
+    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="10" customBuiltin="1" name="Note" xfId="15"/>
+    <cellStyle builtinId="21" customBuiltin="1" name="Output" xfId="10"/>
+    <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="1"/>
+    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
+    <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4539,10 +4562,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4577,7 +4600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4612,7 +4635,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4706,21 +4729,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4737,7 +4760,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4789,49 +4812,144 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z700"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="2">
+        <v>997211</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="2">
+        <v>1</v>
+      </c>
+      <c r="S1" s="2">
+        <v>8000</v>
+      </c>
+      <c r="T1" s="2">
+        <v>0</v>
+      </c>
+      <c r="U1" s="2">
+        <v>8000</v>
+      </c>
+      <c r="V1" s="2">
+        <v>0</v>
+      </c>
+      <c r="W1" s="2">
+        <v>0</v>
+      </c>
+      <c r="X1" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA700"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4911,7 +5029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -4927,8 +5045,8 @@
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2">
-        <v>8000</v>
+      <c r="F2" s="2" t="s">
+        <v>1328</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
@@ -4989,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -5067,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -5145,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -5223,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -5301,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -5379,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -5457,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -5535,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
@@ -5613,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -5691,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -5769,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
@@ -5847,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -5925,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
@@ -6003,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
@@ -6081,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -6159,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>73</v>
       </c>
@@ -6237,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -6315,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
@@ -6393,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -6471,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -6549,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -6627,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -6705,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
@@ -6783,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
@@ -6861,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -6939,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
@@ -7017,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
@@ -7095,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>98</v>
       </c>
@@ -7173,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
@@ -7251,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>102</v>
       </c>
@@ -7329,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>104</v>
       </c>
@@ -7407,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
@@ -7485,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>108</v>
       </c>
@@ -7563,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>110</v>
       </c>
@@ -7641,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -7719,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>114</v>
       </c>
@@ -7797,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>116</v>
       </c>
@@ -7875,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -7953,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -8031,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -8109,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
@@ -8187,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>126</v>
       </c>
@@ -8265,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>128</v>
       </c>
@@ -8343,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>130</v>
       </c>
@@ -8421,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
@@ -8499,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>134</v>
       </c>
@@ -8577,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>136</v>
       </c>
@@ -8655,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>138</v>
       </c>
@@ -8733,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>140</v>
       </c>
@@ -8811,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>142</v>
       </c>
@@ -8889,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>144</v>
       </c>
@@ -8967,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>146</v>
       </c>
@@ -9045,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>148</v>
       </c>
@@ -9123,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>150</v>
       </c>
@@ -9201,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>152</v>
       </c>
@@ -9279,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>154</v>
       </c>
@@ -9357,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>156</v>
       </c>
@@ -9435,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>158</v>
       </c>
@@ -9513,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>160</v>
       </c>
@@ -9591,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>162</v>
       </c>
@@ -9669,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>164</v>
       </c>
@@ -9747,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>166</v>
       </c>
@@ -9825,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>168</v>
       </c>
@@ -9903,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>170</v>
       </c>
@@ -9981,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>172</v>
       </c>
@@ -10059,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>174</v>
       </c>
@@ -10137,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>176</v>
       </c>
@@ -10215,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>178</v>
       </c>
@@ -10293,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>180</v>
       </c>
@@ -10371,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>182</v>
       </c>
@@ -10449,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>184</v>
       </c>
@@ -10527,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>186</v>
       </c>
@@ -10605,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>188</v>
       </c>
@@ -10683,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>190</v>
       </c>
@@ -10761,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>192</v>
       </c>
@@ -10839,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>194</v>
       </c>
@@ -10917,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>196</v>
       </c>
@@ -10995,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>198</v>
       </c>
@@ -11073,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>200</v>
       </c>
@@ -11151,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>202</v>
       </c>
@@ -11229,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>204</v>
       </c>
@@ -11307,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>206</v>
       </c>
@@ -11385,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>208</v>
       </c>
@@ -11463,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>210</v>
       </c>
@@ -11541,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>212</v>
       </c>
@@ -11619,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>214</v>
       </c>
@@ -11697,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>216</v>
       </c>
@@ -11775,7 +11893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>218</v>
       </c>
@@ -11853,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>220</v>
       </c>
@@ -11931,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>222</v>
       </c>
@@ -12009,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>224</v>
       </c>
@@ -12087,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>226</v>
       </c>
@@ -12165,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>228</v>
       </c>
@@ -12243,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>230</v>
       </c>
@@ -12321,7 +12439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>232</v>
       </c>
@@ -12399,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>234</v>
       </c>
@@ -12477,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>236</v>
       </c>
@@ -12555,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>238</v>
       </c>
@@ -12633,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>240</v>
       </c>
@@ -12711,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>242</v>
       </c>
@@ -12789,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>244</v>
       </c>
@@ -12867,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>246</v>
       </c>
@@ -12945,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>248</v>
       </c>
@@ -13023,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>250</v>
       </c>
@@ -13101,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>252</v>
       </c>
@@ -13179,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>254</v>
       </c>
@@ -13257,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>256</v>
       </c>
@@ -13335,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>258</v>
       </c>
@@ -13413,7 +13531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>260</v>
       </c>
@@ -13491,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>262</v>
       </c>
@@ -13569,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>264</v>
       </c>
@@ -13647,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>266</v>
       </c>
@@ -13725,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>268</v>
       </c>
@@ -13803,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>270</v>
       </c>
@@ -13881,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>272</v>
       </c>
@@ -13959,7 +14077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>274</v>
       </c>
@@ -14037,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>276</v>
       </c>
@@ -14115,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>278</v>
       </c>
@@ -14193,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>280</v>
       </c>
@@ -14271,7 +14389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>282</v>
       </c>
@@ -14349,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>284</v>
       </c>
@@ -14427,7 +14545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>286</v>
       </c>
@@ -14505,7 +14623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>288</v>
       </c>
@@ -14583,7 +14701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>290</v>
       </c>
@@ -14661,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>292</v>
       </c>
@@ -14739,7 +14857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>294</v>
       </c>
@@ -14817,7 +14935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>296</v>
       </c>
@@ -14895,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>298</v>
       </c>
@@ -14973,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>300</v>
       </c>
@@ -15051,7 +15169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>302</v>
       </c>
@@ -15129,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>304</v>
       </c>
@@ -15207,7 +15325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>306</v>
       </c>
@@ -15285,7 +15403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>308</v>
       </c>
@@ -15363,7 +15481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>310</v>
       </c>
@@ -15441,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>312</v>
       </c>
@@ -15519,7 +15637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>314</v>
       </c>
@@ -15597,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>316</v>
       </c>
@@ -15675,7 +15793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>318</v>
       </c>
@@ -15753,7 +15871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>320</v>
       </c>
@@ -15831,7 +15949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>322</v>
       </c>
@@ -15909,7 +16027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>324</v>
       </c>
@@ -15987,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>326</v>
       </c>
@@ -16065,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>328</v>
       </c>
@@ -16143,7 +16261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>330</v>
       </c>
@@ -16221,7 +16339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>332</v>
       </c>
@@ -16299,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>334</v>
       </c>
@@ -16377,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>336</v>
       </c>
@@ -16455,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>338</v>
       </c>
@@ -16533,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>340</v>
       </c>
@@ -16611,7 +16729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>342</v>
       </c>
@@ -16689,7 +16807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>344</v>
       </c>
@@ -16767,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>346</v>
       </c>
@@ -16845,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>348</v>
       </c>
@@ -16923,7 +17041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>350</v>
       </c>
@@ -17001,7 +17119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>352</v>
       </c>
@@ -17079,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>354</v>
       </c>
@@ -17157,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>356</v>
       </c>
@@ -17235,7 +17353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>358</v>
       </c>
@@ -17313,7 +17431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>360</v>
       </c>
@@ -17391,7 +17509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>362</v>
       </c>
@@ -17469,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>364</v>
       </c>
@@ -17547,7 +17665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>366</v>
       </c>
@@ -17625,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>368</v>
       </c>
@@ -17703,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>370</v>
       </c>
@@ -17781,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>372</v>
       </c>
@@ -17859,7 +17977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>374</v>
       </c>
@@ -17937,7 +18055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>376</v>
       </c>
@@ -18015,7 +18133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>378</v>
       </c>
@@ -18093,7 +18211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>380</v>
       </c>
@@ -18171,7 +18289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>382</v>
       </c>
@@ -18249,7 +18367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>384</v>
       </c>
@@ -18327,7 +18445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>386</v>
       </c>
@@ -18405,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>388</v>
       </c>
@@ -18483,7 +18601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>390</v>
       </c>
@@ -18561,7 +18679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>392</v>
       </c>
@@ -18639,7 +18757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>394</v>
       </c>
@@ -18717,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>396</v>
       </c>
@@ -18795,7 +18913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>398</v>
       </c>
@@ -18873,7 +18991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>400</v>
       </c>
@@ -18951,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>402</v>
       </c>
@@ -19029,7 +19147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>404</v>
       </c>
@@ -19107,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>406</v>
       </c>
@@ -19185,7 +19303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>408</v>
       </c>
@@ -19263,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>410</v>
       </c>
@@ -19341,7 +19459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>412</v>
       </c>
@@ -19419,7 +19537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>414</v>
       </c>
@@ -19497,7 +19615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>416</v>
       </c>
@@ -19575,7 +19693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>418</v>
       </c>
@@ -19653,7 +19771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>420</v>
       </c>
@@ -19731,7 +19849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>422</v>
       </c>
@@ -19809,7 +19927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>424</v>
       </c>
@@ -19887,7 +20005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>426</v>
       </c>
@@ -19965,7 +20083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>428</v>
       </c>
@@ -20043,7 +20161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>430</v>
       </c>
@@ -20121,7 +20239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>432</v>
       </c>
@@ -20199,7 +20317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>434</v>
       </c>
@@ -20277,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>436</v>
       </c>
@@ -20355,7 +20473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>438</v>
       </c>
@@ -20433,7 +20551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>440</v>
       </c>
@@ -20511,7 +20629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>442</v>
       </c>
@@ -20589,7 +20707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>444</v>
       </c>
@@ -20667,7 +20785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>446</v>
       </c>
@@ -20745,7 +20863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>448</v>
       </c>
@@ -20823,7 +20941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>450</v>
       </c>
@@ -20901,7 +21019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>452</v>
       </c>
@@ -20979,7 +21097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>454</v>
       </c>
@@ -21057,7 +21175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>456</v>
       </c>
@@ -21135,7 +21253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>458</v>
       </c>
@@ -21213,7 +21331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>460</v>
       </c>
@@ -21291,7 +21409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>462</v>
       </c>
@@ -21369,7 +21487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>464</v>
       </c>
@@ -21447,7 +21565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>466</v>
       </c>
@@ -21525,7 +21643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>468</v>
       </c>
@@ -21603,7 +21721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>470</v>
       </c>
@@ -21681,7 +21799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>472</v>
       </c>
@@ -21759,7 +21877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>474</v>
       </c>
@@ -21837,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>476</v>
       </c>
@@ -21915,7 +22033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>478</v>
       </c>
@@ -21993,7 +22111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>480</v>
       </c>
@@ -22071,7 +22189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>482</v>
       </c>
@@ -22149,7 +22267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>484</v>
       </c>
@@ -22227,7 +22345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>486</v>
       </c>
@@ -22305,7 +22423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>488</v>
       </c>
@@ -22383,7 +22501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>490</v>
       </c>
@@ -22461,7 +22579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>492</v>
       </c>
@@ -22539,7 +22657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>494</v>
       </c>
@@ -22617,7 +22735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>496</v>
       </c>
@@ -22695,7 +22813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>418</v>
       </c>
@@ -22773,7 +22891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>499</v>
       </c>
@@ -22851,7 +22969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>501</v>
       </c>
@@ -22929,7 +23047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>503</v>
       </c>
@@ -23007,7 +23125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>505</v>
       </c>
@@ -23085,7 +23203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>507</v>
       </c>
@@ -23163,7 +23281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>509</v>
       </c>
@@ -23241,7 +23359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>511</v>
       </c>
@@ -23319,7 +23437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>513</v>
       </c>
@@ -23397,7 +23515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>264</v>
       </c>
@@ -23475,7 +23593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>516</v>
       </c>
@@ -23553,7 +23671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>518</v>
       </c>
@@ -23631,7 +23749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>520</v>
       </c>
@@ -23709,7 +23827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>522</v>
       </c>
@@ -23787,7 +23905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>524</v>
       </c>
@@ -23865,7 +23983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>526</v>
       </c>
@@ -23943,7 +24061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>528</v>
       </c>
@@ -24021,7 +24139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>530</v>
       </c>
@@ -24099,7 +24217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>532</v>
       </c>
@@ -24177,7 +24295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>534</v>
       </c>
@@ -24255,7 +24373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>536</v>
       </c>
@@ -24333,7 +24451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>538</v>
       </c>
@@ -24411,7 +24529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>540</v>
       </c>
@@ -24489,7 +24607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>542</v>
       </c>
@@ -24567,7 +24685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>544</v>
       </c>
@@ -24645,7 +24763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>546</v>
       </c>
@@ -24723,7 +24841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>548</v>
       </c>
@@ -24801,7 +24919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>550</v>
       </c>
@@ -24879,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>552</v>
       </c>
@@ -24957,7 +25075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>554</v>
       </c>
@@ -25035,7 +25153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>556</v>
       </c>
@@ -25113,7 +25231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>558</v>
       </c>
@@ -25191,7 +25309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>560</v>
       </c>
@@ -25269,7 +25387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>562</v>
       </c>
@@ -25347,7 +25465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>564</v>
       </c>
@@ -25425,7 +25543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>566</v>
       </c>
@@ -25503,7 +25621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>568</v>
       </c>
@@ -25581,7 +25699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>570</v>
       </c>
@@ -25659,7 +25777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>572</v>
       </c>
@@ -25737,7 +25855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>574</v>
       </c>
@@ -25815,7 +25933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>576</v>
       </c>
@@ -25893,7 +26011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>578</v>
       </c>
@@ -25971,7 +26089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>580</v>
       </c>
@@ -26049,7 +26167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>582</v>
       </c>
@@ -26127,7 +26245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>584</v>
       </c>
@@ -26205,7 +26323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>586</v>
       </c>
@@ -26283,7 +26401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>588</v>
       </c>
@@ -26361,7 +26479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>590</v>
       </c>
@@ -26439,7 +26557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>592</v>
       </c>
@@ -26517,7 +26635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>594</v>
       </c>
@@ -26595,7 +26713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>596</v>
       </c>
@@ -26673,7 +26791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>598</v>
       </c>
@@ -26751,7 +26869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>600</v>
       </c>
@@ -26829,7 +26947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>602</v>
       </c>
@@ -26907,7 +27025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>604</v>
       </c>
@@ -26985,7 +27103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>606</v>
       </c>
@@ -27063,7 +27181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>608</v>
       </c>
@@ -27141,7 +27259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>610</v>
       </c>
@@ -27219,7 +27337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>612</v>
       </c>
@@ -27297,7 +27415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>615</v>
       </c>
@@ -27375,7 +27493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>314</v>
       </c>
@@ -27453,7 +27571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>586</v>
       </c>
@@ -27531,7 +27649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>619</v>
       </c>
@@ -27609,7 +27727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>98</v>
       </c>
@@ -27687,7 +27805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>98</v>
       </c>
@@ -27765,7 +27883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>98</v>
       </c>
@@ -27843,7 +27961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>592</v>
       </c>
@@ -27921,7 +28039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>629</v>
       </c>
@@ -27999,7 +28117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>130</v>
       </c>
@@ -28077,7 +28195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>180</v>
       </c>
@@ -28155,7 +28273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>180</v>
       </c>
@@ -28233,7 +28351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>86</v>
       </c>
@@ -28311,7 +28429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>86</v>
       </c>
@@ -28389,7 +28507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>166</v>
       </c>
@@ -28467,7 +28585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>166</v>
       </c>
@@ -28545,7 +28663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>92</v>
       </c>
@@ -28623,7 +28741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>92</v>
       </c>
@@ -28701,7 +28819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>50</v>
       </c>
@@ -28779,7 +28897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>50</v>
       </c>
@@ -28857,7 +28975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>136</v>
       </c>
@@ -28935,7 +29053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>136</v>
       </c>
@@ -29013,7 +29131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>59</v>
       </c>
@@ -29091,7 +29209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>59</v>
       </c>
@@ -29169,7 +29287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>114</v>
       </c>
@@ -29247,7 +29365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>114</v>
       </c>
@@ -29325,7 +29443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>108</v>
       </c>
@@ -29403,7 +29521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>108</v>
       </c>
@@ -29481,7 +29599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>67</v>
       </c>
@@ -29559,7 +29677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>67</v>
       </c>
@@ -29637,7 +29755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>138</v>
       </c>
@@ -29715,7 +29833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>138</v>
       </c>
@@ -29793,7 +29911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>156</v>
       </c>
@@ -29871,7 +29989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>156</v>
       </c>
@@ -29949,7 +30067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>63</v>
       </c>
@@ -30027,7 +30145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>63</v>
       </c>
@@ -30105,7 +30223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>90</v>
       </c>
@@ -30183,7 +30301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>90</v>
       </c>
@@ -30261,7 +30379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>134</v>
       </c>
@@ -30339,7 +30457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>134</v>
       </c>
@@ -30417,7 +30535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>677</v>
       </c>
@@ -30495,7 +30613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>677</v>
       </c>
@@ -30573,7 +30691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>118</v>
       </c>
@@ -30651,7 +30769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>118</v>
       </c>
@@ -30729,7 +30847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>106</v>
       </c>
@@ -30807,7 +30925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>106</v>
       </c>
@@ -30885,7 +31003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>198</v>
       </c>
@@ -30963,7 +31081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>198</v>
       </c>
@@ -31041,7 +31159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>52</v>
       </c>
@@ -31119,7 +31237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>52</v>
       </c>
@@ -31197,7 +31315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>94</v>
       </c>
@@ -31275,7 +31393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>94</v>
       </c>
@@ -31353,7 +31471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>548</v>
       </c>
@@ -31431,7 +31549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>548</v>
       </c>
@@ -31509,7 +31627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>150</v>
       </c>
@@ -31587,7 +31705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>150</v>
       </c>
@@ -31665,7 +31783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>120</v>
       </c>
@@ -31743,7 +31861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>120</v>
       </c>
@@ -31821,7 +31939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>154</v>
       </c>
@@ -31899,7 +32017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>154</v>
       </c>
@@ -31977,7 +32095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>102</v>
       </c>
@@ -32055,7 +32173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>102</v>
       </c>
@@ -32133,7 +32251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>148</v>
       </c>
@@ -32211,7 +32329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>148</v>
       </c>
@@ -32289,7 +32407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>84</v>
       </c>
@@ -32367,7 +32485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>84</v>
       </c>
@@ -32445,7 +32563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>69</v>
       </c>
@@ -32523,7 +32641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>69</v>
       </c>
@@ -32601,7 +32719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>77</v>
       </c>
@@ -32679,7 +32797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>77</v>
       </c>
@@ -32757,7 +32875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>146</v>
       </c>
@@ -32835,7 +32953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>146</v>
       </c>
@@ -32913,7 +33031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>194</v>
       </c>
@@ -32991,7 +33109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>194</v>
       </c>
@@ -33069,7 +33187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>196</v>
       </c>
@@ -33147,7 +33265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>196</v>
       </c>
@@ -33225,7 +33343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>164</v>
       </c>
@@ -33303,7 +33421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>164</v>
       </c>
@@ -33381,7 +33499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>174</v>
       </c>
@@ -33459,7 +33577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>174</v>
       </c>
@@ -33537,7 +33655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>178</v>
       </c>
@@ -33615,7 +33733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>178</v>
       </c>
@@ -33693,7 +33811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>108</v>
       </c>
@@ -33771,7 +33889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>118</v>
       </c>
@@ -33849,7 +33967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>69</v>
       </c>
@@ -33927,7 +34045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>77</v>
       </c>
@@ -34005,7 +34123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>67</v>
       </c>
@@ -34083,7 +34201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>114</v>
       </c>
@@ -34161,7 +34279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>84</v>
       </c>
@@ -34239,7 +34357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>749</v>
       </c>
@@ -34317,7 +34435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>124</v>
       </c>
@@ -34395,7 +34513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>156</v>
       </c>
@@ -34473,7 +34591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>148</v>
       </c>
@@ -34551,7 +34669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>73</v>
       </c>
@@ -34629,7 +34747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>52</v>
       </c>
@@ -34707,7 +34825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>106</v>
       </c>
@@ -34785,7 +34903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>134</v>
       </c>
@@ -34863,7 +34981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>548</v>
       </c>
@@ -34941,7 +35059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>63</v>
       </c>
@@ -35019,7 +35137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>677</v>
       </c>
@@ -35097,7 +35215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>198</v>
       </c>
@@ -35175,7 +35293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>196</v>
       </c>
@@ -35253,7 +35371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>50</v>
       </c>
@@ -35331,7 +35449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>138</v>
       </c>
@@ -35409,7 +35527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>120</v>
       </c>
@@ -35487,7 +35605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>150</v>
       </c>
@@ -35565,7 +35683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>92</v>
       </c>
@@ -35643,7 +35761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>152</v>
       </c>
@@ -35721,7 +35839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>82</v>
       </c>
@@ -35799,7 +35917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>146</v>
       </c>
@@ -35877,7 +35995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>94</v>
       </c>
@@ -35955,7 +36073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>75</v>
       </c>
@@ -36033,7 +36151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>166</v>
       </c>
@@ -36111,7 +36229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>178</v>
       </c>
@@ -36189,7 +36307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>122</v>
       </c>
@@ -36267,7 +36385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>194</v>
       </c>
@@ -36345,7 +36463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>154</v>
       </c>
@@ -36423,7 +36541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>174</v>
       </c>
@@ -36501,7 +36619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>164</v>
       </c>
@@ -36579,7 +36697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>59</v>
       </c>
@@ -36657,7 +36775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>136</v>
       </c>
@@ -36735,7 +36853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>102</v>
       </c>
@@ -36813,7 +36931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>86</v>
       </c>
@@ -36891,7 +37009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>65</v>
       </c>
@@ -36969,7 +37087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>182</v>
       </c>
@@ -37047,7 +37165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>560</v>
       </c>
@@ -37125,7 +37243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>61</v>
       </c>
@@ -37203,7 +37321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>90</v>
       </c>
@@ -37281,7 +37399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>180</v>
       </c>
@@ -37359,7 +37477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>160</v>
       </c>
@@ -37437,7 +37555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>112</v>
       </c>
@@ -37515,7 +37633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>186</v>
       </c>
@@ -37593,7 +37711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>186</v>
       </c>
@@ -37671,7 +37789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>186</v>
       </c>
@@ -37749,7 +37867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>184</v>
       </c>
@@ -37827,7 +37945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>200</v>
       </c>
@@ -37905,7 +38023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>116</v>
       </c>
@@ -37983,7 +38101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>126</v>
       </c>
@@ -38061,7 +38179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>162</v>
       </c>
@@ -38139,7 +38257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>104</v>
       </c>
@@ -38217,7 +38335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>188</v>
       </c>
@@ -38295,7 +38413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>144</v>
       </c>
@@ -38373,7 +38491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>132</v>
       </c>
@@ -38451,7 +38569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>202</v>
       </c>
@@ -38529,7 +38647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>202</v>
       </c>
@@ -38607,7 +38725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>202</v>
       </c>
@@ -38685,7 +38803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>142</v>
       </c>
@@ -38763,7 +38881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>43</v>
       </c>
@@ -38841,7 +38959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>43</v>
       </c>
@@ -38919,7 +39037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>43</v>
       </c>
@@ -38997,7 +39115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>172</v>
       </c>
@@ -39075,7 +39193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>110</v>
       </c>
@@ -39153,7 +39271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>176</v>
       </c>
@@ -39231,7 +39349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>88</v>
       </c>
@@ -39309,7 +39427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>88</v>
       </c>
@@ -39387,7 +39505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>88</v>
       </c>
@@ -39465,7 +39583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>54</v>
       </c>
@@ -39543,7 +39661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>54</v>
       </c>
@@ -39621,7 +39739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>110</v>
       </c>
@@ -39699,7 +39817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>110</v>
       </c>
@@ -39777,7 +39895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>160</v>
       </c>
@@ -39855,7 +39973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>160</v>
       </c>
@@ -39933,7 +40051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>142</v>
       </c>
@@ -40011,7 +40129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>142</v>
       </c>
@@ -40089,7 +40207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>296</v>
       </c>
@@ -40167,7 +40285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>296</v>
       </c>
@@ -40245,7 +40363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>296</v>
       </c>
@@ -40323,7 +40441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>244</v>
       </c>
@@ -40401,7 +40519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>244</v>
       </c>
@@ -40479,7 +40597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>244</v>
       </c>
@@ -40557,7 +40675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>584</v>
       </c>
@@ -40635,7 +40753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>584</v>
       </c>
@@ -40713,7 +40831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>584</v>
       </c>
@@ -40791,7 +40909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>144</v>
       </c>
@@ -40869,7 +40987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>144</v>
       </c>
@@ -40947,7 +41065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>162</v>
       </c>
@@ -41025,7 +41143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>162</v>
       </c>
@@ -41103,7 +41221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>898</v>
       </c>
@@ -41181,7 +41299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>898</v>
       </c>
@@ -41259,7 +41377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>898</v>
       </c>
@@ -41337,7 +41455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>200</v>
       </c>
@@ -41415,7 +41533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>200</v>
       </c>
@@ -41493,7 +41611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>906</v>
       </c>
@@ -41571,7 +41689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>906</v>
       </c>
@@ -41649,7 +41767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>906</v>
       </c>
@@ -41727,7 +41845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>468</v>
       </c>
@@ -41805,7 +41923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>468</v>
       </c>
@@ -41883,7 +42001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>468</v>
       </c>
@@ -41961,7 +42079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>172</v>
       </c>
@@ -42039,7 +42157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>172</v>
       </c>
@@ -42117,7 +42235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>430</v>
       </c>
@@ -42195,7 +42313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>430</v>
       </c>
@@ -42273,7 +42391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>430</v>
       </c>
@@ -42351,7 +42469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>116</v>
       </c>
@@ -42429,7 +42547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>116</v>
       </c>
@@ -42507,7 +42625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>503</v>
       </c>
@@ -42585,7 +42703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>503</v>
       </c>
@@ -42663,7 +42781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>503</v>
       </c>
@@ -42741,7 +42859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>132</v>
       </c>
@@ -42819,7 +42937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>132</v>
       </c>
@@ -42897,7 +43015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>112</v>
       </c>
@@ -42975,7 +43093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>112</v>
       </c>
@@ -43053,7 +43171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>176</v>
       </c>
@@ -43131,7 +43249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>176</v>
       </c>
@@ -43209,7 +43327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>188</v>
       </c>
@@ -43287,7 +43405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>188</v>
       </c>
@@ -43365,7 +43483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>104</v>
       </c>
@@ -43443,7 +43561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>104</v>
       </c>
@@ -43521,7 +43639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>612</v>
       </c>
@@ -43599,7 +43717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>612</v>
       </c>
@@ -43677,7 +43795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>612</v>
       </c>
@@ -43755,7 +43873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>492</v>
       </c>
@@ -43833,7 +43951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>492</v>
       </c>
@@ -43911,7 +44029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>492</v>
       </c>
@@ -43989,7 +44107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>950</v>
       </c>
@@ -44067,7 +44185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>950</v>
       </c>
@@ -44145,7 +44263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>950</v>
       </c>
@@ -44223,7 +44341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>404</v>
       </c>
@@ -44301,7 +44419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>404</v>
       </c>
@@ -44379,7 +44497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>404</v>
       </c>
@@ -44457,7 +44575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>126</v>
       </c>
@@ -44535,7 +44653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>126</v>
       </c>
@@ -44613,7 +44731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>184</v>
       </c>
@@ -44691,7 +44809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>184</v>
       </c>
@@ -44769,7 +44887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>306</v>
       </c>
@@ -44847,7 +44965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>306</v>
       </c>
@@ -44925,7 +45043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>306</v>
       </c>
@@ -45003,7 +45121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>582</v>
       </c>
@@ -45081,7 +45199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>582</v>
       </c>
@@ -45159,7 +45277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>582</v>
       </c>
@@ -45237,7 +45355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>906</v>
       </c>
@@ -45315,7 +45433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>975</v>
       </c>
@@ -45393,7 +45511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>677</v>
       </c>
@@ -45471,7 +45589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>978</v>
       </c>
@@ -45549,7 +45667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>981</v>
       </c>
@@ -45627,7 +45745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>984</v>
       </c>
@@ -45705,7 +45823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>986</v>
       </c>
@@ -45783,7 +45901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>988</v>
       </c>
@@ -45861,7 +45979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>991</v>
       </c>
@@ -45939,7 +46057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>994</v>
       </c>
@@ -46017,7 +46135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>996</v>
       </c>
@@ -46095,7 +46213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>950</v>
       </c>
@@ -46173,7 +46291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>1000</v>
       </c>
@@ -46251,7 +46369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>598</v>
       </c>
@@ -46329,7 +46447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>54</v>
       </c>
@@ -46407,7 +46525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>1006</v>
       </c>
@@ -46485,7 +46603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>898</v>
       </c>
@@ -46563,7 +46681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>1010</v>
       </c>
@@ -46641,7 +46759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>1013</v>
       </c>
@@ -46719,7 +46837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>1015</v>
       </c>
@@ -46797,7 +46915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>1017</v>
       </c>
@@ -46875,7 +46993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>749</v>
       </c>
@@ -46953,7 +47071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>1022</v>
       </c>
@@ -47031,7 +47149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>1025</v>
       </c>
@@ -47109,7 +47227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>1028</v>
       </c>
@@ -47187,7 +47305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>1031</v>
       </c>
@@ -47265,7 +47383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>991</v>
       </c>
@@ -47343,7 +47461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>1036</v>
       </c>
@@ -47421,7 +47539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>991</v>
       </c>
@@ -47499,7 +47617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>1039</v>
       </c>
@@ -47577,7 +47695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>1039</v>
       </c>
@@ -47655,7 +47773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>1043</v>
       </c>
@@ -47733,7 +47851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>1046</v>
       </c>
@@ -47811,7 +47929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>1048</v>
       </c>
@@ -47889,7 +48007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>1050</v>
       </c>
@@ -47967,7 +48085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>1053</v>
       </c>
@@ -48045,7 +48163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>1055</v>
       </c>
@@ -48123,7 +48241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>1057</v>
       </c>
@@ -48201,7 +48319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>1059</v>
       </c>
@@ -48279,7 +48397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>1061</v>
       </c>
@@ -48357,7 +48475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>1063</v>
       </c>
@@ -48435,7 +48553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>1065</v>
       </c>
@@ -48513,7 +48631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>1067</v>
       </c>
@@ -48591,7 +48709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>1069</v>
       </c>
@@ -48669,7 +48787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>1071</v>
       </c>
@@ -48747,7 +48865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>1073</v>
       </c>
@@ -48825,7 +48943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>1075</v>
       </c>
@@ -48903,7 +49021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>1077</v>
       </c>
@@ -48981,7 +49099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>1079</v>
       </c>
@@ -49059,7 +49177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>1081</v>
       </c>
@@ -49137,7 +49255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>1061</v>
       </c>
@@ -49215,7 +49333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>1071</v>
       </c>
@@ -49293,7 +49411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>1085</v>
       </c>
@@ -49371,7 +49489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>582</v>
       </c>
@@ -49449,7 +49567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>314</v>
       </c>
@@ -49527,7 +49645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>619</v>
       </c>
@@ -49605,7 +49723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>975</v>
       </c>
@@ -49683,7 +49801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>975</v>
       </c>
@@ -49761,7 +49879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>248</v>
       </c>
@@ -49839,7 +49957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>248</v>
       </c>
@@ -49917,7 +50035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>148</v>
       </c>
@@ -49995,7 +50113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>268</v>
       </c>
@@ -50073,7 +50191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>170</v>
       </c>
@@ -50151,7 +50269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>416</v>
       </c>
@@ -50229,7 +50347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>222</v>
       </c>
@@ -50307,7 +50425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>304</v>
       </c>
@@ -50385,7 +50503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>503</v>
       </c>
@@ -50463,7 +50581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>986</v>
       </c>
@@ -50541,7 +50659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>988</v>
       </c>
@@ -50619,7 +50737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>586</v>
       </c>
@@ -50697,7 +50815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>981</v>
       </c>
@@ -50775,7 +50893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>984</v>
       </c>
@@ -50853,7 +50971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>677</v>
       </c>
@@ -50931,7 +51049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>186</v>
       </c>
@@ -51009,7 +51127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>186</v>
       </c>
@@ -51087,7 +51205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>186</v>
       </c>
@@ -51165,7 +51283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>1124</v>
       </c>
@@ -51243,7 +51361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>1124</v>
       </c>
@@ -51321,7 +51439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>490</v>
       </c>
@@ -51399,7 +51517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>162</v>
       </c>
@@ -51477,7 +51595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>629</v>
       </c>
@@ -51555,7 +51673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>252</v>
       </c>
@@ -51633,7 +51751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>298</v>
       </c>
@@ -51711,7 +51829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>312</v>
       </c>
@@ -51789,7 +51907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>216</v>
       </c>
@@ -51867,7 +51985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>434</v>
       </c>
@@ -51945,7 +52063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>56</v>
       </c>
@@ -52023,7 +52141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>276</v>
       </c>
@@ -52101,7 +52219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>460</v>
       </c>
@@ -52179,7 +52297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>564</v>
       </c>
@@ -52257,7 +52375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>63</v>
       </c>
@@ -52335,7 +52453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>334</v>
       </c>
@@ -52413,7 +52531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>260</v>
       </c>
@@ -52491,7 +52609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>1160</v>
       </c>
@@ -52569,7 +52687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>1160</v>
       </c>
@@ -52647,7 +52765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>1160</v>
       </c>
@@ -52725,7 +52843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>240</v>
       </c>
@@ -52803,7 +52921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>984</v>
       </c>
@@ -52881,7 +52999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>326</v>
       </c>
@@ -52959,7 +53077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>142</v>
       </c>
@@ -53037,7 +53155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>314</v>
       </c>
@@ -53115,7 +53233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>996</v>
       </c>
@@ -53193,7 +53311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>950</v>
       </c>
@@ -53271,7 +53389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>52</v>
       </c>
@@ -53349,7 +53467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>404</v>
       </c>
@@ -53427,7 +53545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>190</v>
       </c>
@@ -53505,7 +53623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>190</v>
       </c>
@@ -53583,7 +53701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>84</v>
       </c>
@@ -53661,7 +53779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>1006</v>
       </c>
@@ -53739,7 +53857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>898</v>
       </c>
@@ -53817,7 +53935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>1013</v>
       </c>
@@ -53895,7 +54013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>580</v>
       </c>
@@ -53973,7 +54091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>1193</v>
       </c>
@@ -54051,7 +54169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>1006</v>
       </c>
@@ -54129,7 +54247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>950</v>
       </c>
@@ -54207,7 +54325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>230</v>
       </c>
@@ -54285,7 +54403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>749</v>
       </c>
@@ -54363,7 +54481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>499</v>
       </c>
@@ -54441,7 +54559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>468</v>
       </c>
@@ -54519,7 +54637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>1025</v>
       </c>
@@ -54597,7 +54715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>436</v>
       </c>
@@ -54675,7 +54793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>1017</v>
       </c>
@@ -54753,7 +54871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>1028</v>
       </c>
@@ -54831,7 +54949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>1046</v>
       </c>
@@ -54909,7 +55027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>1025</v>
       </c>
@@ -54987,7 +55105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>1043</v>
       </c>
@@ -55065,7 +55183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>1048</v>
       </c>
@@ -55143,7 +55261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>1050</v>
       </c>
@@ -55221,7 +55339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>1053</v>
       </c>
@@ -55299,7 +55417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>1055</v>
       </c>
@@ -55377,7 +55495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>1057</v>
       </c>
@@ -55455,7 +55573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>1059</v>
       </c>
@@ -55533,7 +55651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>1061</v>
       </c>
@@ -55611,7 +55729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>1063</v>
       </c>
@@ -55689,7 +55807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>1065</v>
       </c>
@@ -55767,7 +55885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>1067</v>
       </c>
@@ -55845,7 +55963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>1069</v>
       </c>
@@ -55923,7 +56041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>1071</v>
       </c>
@@ -56001,7 +56119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>1073</v>
       </c>
@@ -56079,7 +56197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>1075</v>
       </c>
@@ -56157,7 +56275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>1077</v>
       </c>
@@ -56235,7 +56353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>1079</v>
       </c>
@@ -56313,7 +56431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>1081</v>
       </c>
@@ -56391,7 +56509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>79</v>
       </c>
@@ -56469,7 +56587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>1039</v>
       </c>
@@ -56547,7 +56665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>436</v>
       </c>
@@ -56625,7 +56743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>526</v>
       </c>
@@ -56703,7 +56821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>1043</v>
       </c>
@@ -56781,7 +56899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>110</v>
       </c>
@@ -56859,7 +56977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>1039</v>
       </c>
@@ -56937,7 +57055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>1261</v>
       </c>
@@ -57015,7 +57133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>162</v>
       </c>
@@ -57093,7 +57211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>1266</v>
       </c>
@@ -57171,7 +57289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>1269</v>
       </c>
@@ -57249,7 +57367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>1271</v>
       </c>
@@ -57327,7 +57445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>494</v>
       </c>
@@ -57405,7 +57523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>252</v>
       </c>
@@ -57483,7 +57601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>1276</v>
       </c>
@@ -57561,7 +57679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>1061</v>
       </c>
@@ -57639,7 +57757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>1071</v>
       </c>
@@ -57717,7 +57835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>1280</v>
       </c>
@@ -57795,7 +57913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>1282</v>
       </c>
@@ -57873,7 +57991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>358</v>
       </c>
@@ -57951,7 +58069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>380</v>
       </c>
@@ -58029,7 +58147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
         <v>382</v>
       </c>
@@ -58107,7 +58225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>382</v>
       </c>
@@ -58185,7 +58303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>1085</v>
       </c>
@@ -58263,7 +58381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>1085</v>
       </c>
@@ -58341,7 +58459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>1085</v>
       </c>
@@ -58419,7 +58537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>1053</v>
       </c>
@@ -58497,7 +58615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>1055</v>
       </c>
@@ -58575,7 +58693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>1073</v>
       </c>
@@ -58653,7 +58771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>1079</v>
       </c>
@@ -58731,7 +58849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
         <v>1050</v>
       </c>
@@ -58809,7 +58927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>1063</v>
       </c>
@@ -58887,7 +59005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>1065</v>
       </c>
@@ -58965,7 +59083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>1057</v>
       </c>
@@ -59043,7 +59161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>1059</v>
       </c>
@@ -59121,7 +59239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>1313</v>
       </c>
@@ -59199,7 +59317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
         <v>1316</v>
       </c>
@@ -59277,7 +59395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>276</v>
       </c>
@@ -59355,7 +59473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>334</v>
       </c>
@@ -59434,6 +59552,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>